--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,19 +49,22 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
@@ -73,243 +76,231 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>well</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>hot</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -319,7 +310,7 @@
     <t>really</t>
   </si>
   <si>
-    <t>better</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
@@ -328,10 +319,10 @@
     <t>use</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -695,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,16 +776,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,16 +826,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -885,16 +876,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3643410852713178</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.871517027863777</v>
@@ -964,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3535353535353535</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2948717948717949</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2830188679245283</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1243243243243243</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.684931506849315</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,21 +1197,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>166</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.6847457627118644</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L12">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6847457627118644</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.651685393258427</v>
+        <v>0.6532905296950241</v>
       </c>
       <c r="L14">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M14">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6444444444444445</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.640625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6363636363636364</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1388,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.5942857142857143</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1414,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1440,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L21">
         <v>36</v>
       </c>
-      <c r="K21">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L21">
-        <v>60</v>
-      </c>
       <c r="M21">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1466,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1492,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5301204819277109</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1518,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1544,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.4912280701754386</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1570,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.46</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1596,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4473684210526316</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1622,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4444444444444444</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1648,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4360902255639098</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1674,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4307692307692308</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1700,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4126984126984127</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1726,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4102564102564102</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1752,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.392156862745098</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1778,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.3855421686746988</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1804,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.3770491803278688</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1830,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3709677419354839</v>
+        <v>0.41</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1856,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3627450980392157</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L37">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1882,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>260</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.3541666666666667</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1908,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3538461538461539</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1934,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3268482490272374</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L40">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M40">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1960,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>173</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.3265306122448979</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1986,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3061224489795918</v>
+        <v>0.310958904109589</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2012,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.2941176470588235</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2038,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.2932330827067669</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2064,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.2931506849315069</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L45">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2090,12 +2105,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>516</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
         <v>0.2894736842105263</v>
@@ -2121,16 +2136,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.2877697841726619</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2142,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.2792792792792793</v>
+        <v>0.271523178807947</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2168,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.2716049382716049</v>
+        <v>0.2706766917293233</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2194,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.271523178807947</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2220,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.2679425837320574</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2246,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.2678571428571428</v>
+        <v>0.2467672413793103</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2269,24 +2284,24 @@
         <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>41</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.2673267326732673</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2298,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.2572658772874058</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L54">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="M54">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2324,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>690</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.2380952380952381</v>
+        <v>0.2</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2350,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>64</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.2342342342342342</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2376,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.1960264900662252</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="L57">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2402,47 +2417,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>607</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.1851851851851852</v>
+        <v>0.1920614596670935</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>88</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.1828644501278772</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L59">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2454,47 +2469,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>639</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.1714285714285714</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.17</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2506,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.1630434782608696</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2532,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.1598746081504702</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="L63">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2558,47 +2573,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>268</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.1517857142857143</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>95</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.1409395973154362</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2610,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.1402439024390244</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2636,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>141</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.1376146788990826</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2662,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>94</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.1337719298245614</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L68">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M68">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2688,47 +2703,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>395</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.1324324324324324</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L69">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>321</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.1241050119331742</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L70">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2740,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>367</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.1240875912408759</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L71">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2766,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>360</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.1186440677966102</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2792,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>156</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.1181818181818182</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L73">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M73">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2818,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.1099656357388316</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L74">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2844,47 +2859,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>259</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.1049382716049383</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.103448275862069</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2896,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.1033210332103321</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2922,47 +2937,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>243</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.1025641025641026</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>140</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.09696969696969697</v>
+        <v>0.06902985074626866</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2974,47 +2989,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>149</v>
+        <v>998</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.09663865546218488</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>215</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.08148148148148149</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3026,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>248</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.07211538461538461</v>
+        <v>0.04797047970479705</v>
       </c>
       <c r="L82">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M82">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3052,241 +3067,137 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>193</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.07015902712815715</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="L83">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>994</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.06886657101865136</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="L84">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M84">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>649</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.06830601092896176</v>
+        <v>0.04038461538461539</v>
       </c>
       <c r="L85">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>341</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.05514705882352941</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>257</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.05343511450381679</v>
+        <v>0.02628120893561104</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M87">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K88">
-        <v>0.04253472222222222</v>
-      </c>
-      <c r="L88">
-        <v>49</v>
-      </c>
-      <c r="M88">
-        <v>54</v>
-      </c>
-      <c r="N88">
-        <v>0.91</v>
-      </c>
-      <c r="O88">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K89">
-        <v>0.04251386321626617</v>
-      </c>
-      <c r="L89">
-        <v>23</v>
-      </c>
-      <c r="M89">
-        <v>24</v>
-      </c>
-      <c r="N89">
-        <v>0.96</v>
-      </c>
-      <c r="O89">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K90">
-        <v>0.03838771593090211</v>
-      </c>
-      <c r="L90">
-        <v>20</v>
-      </c>
-      <c r="M90">
-        <v>21</v>
-      </c>
-      <c r="N90">
-        <v>0.95</v>
-      </c>
-      <c r="O90">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K91">
-        <v>0.02362204724409449</v>
-      </c>
-      <c r="L91">
-        <v>18</v>
-      </c>
-      <c r="M91">
-        <v>23</v>
-      </c>
-      <c r="N91">
-        <v>0.78</v>
-      </c>
-      <c r="O91">
-        <v>0.22</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
